--- a/data/trans_bre/P29A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P29A-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-34.60919640489728</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-27.76322197775396</v>
+        <v>-27.76322197775398</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.6106740644647531</v>
@@ -649,7 +649,7 @@
         <v>-0.5697279462989498</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.5406739183277501</v>
+        <v>-0.5406739183277502</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-41.98181643088677</v>
+        <v>-41.32980943268085</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-40.64313906879685</v>
+        <v>-41.12628515441921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-39.47465505119127</v>
+        <v>-39.54278620936975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-32.89423055927693</v>
+        <v>-32.72702476169606</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.667885406035825</v>
+        <v>-0.6629617568814896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6855390442902759</v>
+        <v>-0.6890452843917826</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6313816848704591</v>
+        <v>-0.6270205477196883</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6031862147172504</v>
+        <v>-0.598979614118186</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-32.20126061315617</v>
+        <v>-31.4511579750994</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-30.37464221454638</v>
+        <v>-30.87297320730705</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-29.05443261283904</v>
+        <v>-29.03361769130963</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-22.19892965678835</v>
+        <v>-22.71999156725457</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.5484973832794222</v>
+        <v>-0.5440503234642721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.5542390494455617</v>
+        <v>-0.56497863836105</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.5037866614414906</v>
+        <v>-0.5056170360590713</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.4658338416894761</v>
+        <v>-0.4708061219930885</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-36.71350864688372</v>
+        <v>-36.56809306761449</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-34.84082046964881</v>
+        <v>-35.09231138498613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-29.77652136654988</v>
+        <v>-29.86259223115726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-31.13713182549417</v>
+        <v>-31.52615032844527</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6071908764421758</v>
+        <v>-0.6078143727654913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.607668609648666</v>
+        <v>-0.615986216217824</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5311696761791341</v>
+        <v>-0.5299135201378216</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6197035211658151</v>
+        <v>-0.6202308851871324</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-28.16830861018028</v>
+        <v>-27.81868185868491</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-25.86266422825688</v>
+        <v>-26.70679388362062</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-21.22486186625188</v>
+        <v>-20.90889708131688</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-22.9796251564901</v>
+        <v>-22.74924539673237</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.4946490342965066</v>
+        <v>-0.497619943763151</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4898367431545438</v>
+        <v>-0.4982154431399259</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.4077500810239534</v>
+        <v>-0.3967639197554876</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.5083475778462258</v>
+        <v>-0.5071219315378649</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.4868529891890099</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4502247856173514</v>
+        <v>-0.4502247856173515</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-32.77320865838067</v>
+        <v>-32.27832017922921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-36.99427580138888</v>
+        <v>-37.31925120338044</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-31.52667577192597</v>
+        <v>-31.38190506980373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-25.36677110143425</v>
+        <v>-25.40191944410785</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6724634146100154</v>
+        <v>-0.6611966167692217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6390050615796083</v>
+        <v>-0.640440813714696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5581310986344092</v>
+        <v>-0.5502848395470075</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5267629364057975</v>
+        <v>-0.5305697557803765</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-23.27084639658806</v>
+        <v>-22.85864510097768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-26.89764714893451</v>
+        <v>-27.07588087604969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.47820251437262</v>
+        <v>-21.37189170240312</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-15.55761204234091</v>
+        <v>-15.39913929864409</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.5318784002116821</v>
+        <v>-0.5243645854662726</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.5064579716969915</v>
+        <v>-0.5066728568790849</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.4159214784055654</v>
+        <v>-0.4147519356414671</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.36853024572425</v>
+        <v>-0.3619836637265535</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-22.1008777328435</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-19.23793937917571</v>
+        <v>-19.2379393791757</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4785321663646282</v>
@@ -949,7 +949,7 @@
         <v>-0.3689243852350973</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.408570186996791</v>
+        <v>-0.4085701869967909</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-29.90323291961613</v>
+        <v>-29.75048217998617</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-29.96732636353413</v>
+        <v>-29.95432520059626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-26.89589292820897</v>
+        <v>-26.64319185749059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-23.2202652051932</v>
+        <v>-23.37848204485456</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5343253692032366</v>
+        <v>-0.5319196974754147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5123375867085871</v>
+        <v>-0.5116625002179618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4321134764236169</v>
+        <v>-0.4289781327901032</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4707878136893915</v>
+        <v>-0.4712246593792148</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-21.01929597404424</v>
+        <v>-20.63902948218422</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-20.75991803663183</v>
+        <v>-20.88024202199376</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-17.819057340323</v>
+        <v>-17.74266643037785</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-14.91873704837121</v>
+        <v>-14.65510561518105</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4087728998146346</v>
+        <v>-0.4068652763476091</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3859224517975973</v>
+        <v>-0.3875062035077013</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3047724474348569</v>
+        <v>-0.3030614342071317</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3408333291182399</v>
+        <v>-0.3307091896929588</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-26.39188510932822</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-23.36939837237259</v>
+        <v>-23.36939837237258</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5537668140592789</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4620034145232896</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.489607373888893</v>
+        <v>-0.4896073738888929</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-32.9039712831316</v>
+        <v>-32.57099024360622</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-32.6461799959815</v>
+        <v>-32.71049786829571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-28.73630851583644</v>
+        <v>-28.70828706744075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-25.62667997413068</v>
+        <v>-25.58654151399016</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5862193734478314</v>
+        <v>-0.583005567401313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.573480537173361</v>
+        <v>-0.5713751575156462</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4934016941741268</v>
+        <v>-0.4955648896092524</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5228484557706783</v>
+        <v>-0.5233637706404728</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-28.10554821506487</v>
+        <v>-28.19905703065165</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-27.87298053237454</v>
+        <v>-28.11104512893478</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-23.85110666265632</v>
+        <v>-24.01209933450884</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-21.22723364022518</v>
+        <v>-21.03587161065569</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.5215860593631899</v>
+        <v>-0.5233598355760218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.5110700296360722</v>
+        <v>-0.5122558690458842</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4274578542186138</v>
+        <v>-0.4295290886081692</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.4559122530383359</v>
+        <v>-0.4569316400449239</v>
       </c>
     </row>
     <row r="19">
